--- a/artfynd/A 20822-2019.xlsx
+++ b/artfynd/A 20822-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY19"/>
+  <dimension ref="A1:AY20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2851,6 +2851,129 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112174920</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90021</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>6031</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Sparassis crispa</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Wulfen:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Osbro, Sm</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>537160.6425027023</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6332349.318422875</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Högsby</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Fagerhult</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>11:19</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>11:19</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Anders  Henriksson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Anders  Henriksson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 20822-2019.xlsx
+++ b/artfynd/A 20822-2019.xlsx
@@ -2904,10 +2904,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>537160.6425027023</v>
+        <v>537161</v>
       </c>
       <c r="R20" t="n">
-        <v>6332349.318422875</v>
+        <v>6332349</v>
       </c>
       <c r="S20" t="n">
         <v>3</v>

--- a/artfynd/A 20822-2019.xlsx
+++ b/artfynd/A 20822-2019.xlsx
@@ -2856,7 +2856,7 @@
         <v>112174920</v>
       </c>
       <c r="B20" t="n">
-        <v>90021</v>
+        <v>90155</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>

--- a/artfynd/A 20822-2019.xlsx
+++ b/artfynd/A 20822-2019.xlsx
@@ -2856,7 +2856,7 @@
         <v>112174920</v>
       </c>
       <c r="B20" t="n">
-        <v>90155</v>
+        <v>90169</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
